--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -451,687 +451,925 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>008734</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>交银施罗德科锐科技创新混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>88.83</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>5.34</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>001603</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>易方达安盈回报混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>49.64</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>003659</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>山西证券策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009064</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>009065</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005949</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005950</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1141,7 +1379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1162,15 +1400,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1192,15 +1440,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>76.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.26</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.25</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2661</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>501051</t>
+          <t>010094</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>圆信永丰汇利混合（LOF）</t>
+          <t>交银施罗德产业机遇混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.23</t>
+          <t>42.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.88</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>80.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8708</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>001216</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>易方达新收益灵活配置混合 - A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>56.22</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008416</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>28.89</t>
+          <t>29.74</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7428</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1294,25 +1582,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008417</t>
+          <t>519773</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
+          <t>交银施罗德数据产业灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>28.89</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7055</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005664</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏扬景欣混合A</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>21.69</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3253</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005665</t>
+          <t>004965</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>鹏扬景欣混合C</t>
+          <t>泓德致远混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>53.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0762</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005642</t>
+          <t>001217</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏扬景升灵活配置混合A</t>
+          <t>易方达新收益灵活配置混合 - C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>18.64</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7009</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005643</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏扬景升灵活配置混合C</t>
+          <t>国泰中小盘成长混合(LOF)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.21</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5167</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009847</t>
+          <t>160212</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合A</t>
+          <t>国泰估值优势混合 (LOF)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>12.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5039</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009848</t>
+          <t>000824</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>圆信永丰研究精选混合C</t>
+          <t>圆信永丰双红利灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>8.29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6.17</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4435</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010094</t>
+          <t>020003</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德产业机遇混合</t>
+          <t>国泰金龙行业混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>80.49</t>
+          <t>12.59</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>76.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>000824</t>
+          <t>008734</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合A</t>
+          <t>交银施罗德科锐科技创新混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3395</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1546,26 +1924,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000825</t>
+          <t>002345</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>圆信永丰双红利灵活配置混合C</t>
+          <t>华夏高端制造灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>93.76</t>
+          <t>8.79</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.35</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3384</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1574,26 +1962,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001216</t>
+          <t>001603</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达新收益灵活配置混合 - A</t>
+          <t>易方达安盈回报混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>14.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>49.07</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3382</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1602,25 +2000,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001217</t>
+          <t>004966</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达新收益灵活配置混合 - C</t>
+          <t>泓德致远混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>11.87</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>49.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2386</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1630,26 +2038,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>020003</t>
+          <t>009847</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰金龙行业混合</t>
+          <t>圆信永丰研究精选混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>76.58</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1658,26 +2076,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>001603</t>
+          <t>005642</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>易方达安盈回报混合</t>
+          <t>鹏扬景升灵活配置混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>49.07</t>
+          <t>6.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1686,26 +2114,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>501051</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>圆信永丰汇利混合（LOF）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>78.73</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>5</v>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1714,26 +2152,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>005664</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>鹏扬景欣混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>79.00</t>
+          <t>11.78</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.11</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>5</v>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1190</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1742,26 +2190,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>519773</t>
+          <t>008277</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
+          <t>财通资管行业精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>84.74</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>7.50</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1770,25 +2228,35 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>160211</t>
+          <t>008416</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国泰中小盘成长混合(LOF)</t>
+          <t>鹏扬景瑞三年定期开放混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1798,25 +2266,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>008499</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国泰估值优势混合 (LOF)</t>
+          <t>鹏扬景科混合A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>31.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1826,26 +2304,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002345</t>
+          <t>005643</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华夏高端制造灵活配置混合</t>
+          <t>鹏扬景升灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>90.23</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -1854,26 +2342,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008734</t>
+          <t>005665</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>交银施罗德科锐科技创新混合</t>
+          <t>鹏扬景欣混合C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>81.32</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>27.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -1882,26 +2380,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008277</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>财通资管行业精选混合</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>89.95</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6</v>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -1910,25 +2418,35 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>008499</t>
+          <t>008500</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>鹏扬景科混合A</t>
+          <t>鹏扬景科混合C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>31.70</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1.14</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1938,26 +2456,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008500</t>
+          <t>009848</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏扬景科混合C</t>
+          <t>圆信永丰研究精选混合C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>31.70</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>8</v>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="30">
@@ -1966,26 +2494,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>004965</t>
+          <t>000825</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>泓德致远混合A</t>
+          <t>圆信永丰双红利灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1994,26 +2532,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>004966</t>
+          <t>008417</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>泓德致远混合C</t>
+          <t>鹏扬景瑞三年定期开放混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49.70</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>9</v>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2567,4 +2568,2264 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>71.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8612</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4020</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>110.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1450</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3827</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2745</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6229</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5984</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0103</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9519</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.24</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>77.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8957</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7479</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5877</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5497</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5040</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>49.60</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3703</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3487</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.52</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2884</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2130</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1950</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009847</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008277</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管行业精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1171</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001097</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华泰柏瑞积极优选股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001922</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰多策略收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000526</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501017</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰融丰外延增长灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.06</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009691</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009481</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002059</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰浓益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.83</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009848</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>30.31</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008230</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>九泰天辰量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009692</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰浩益18个月封闭运作混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>20.75</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009482</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国泰宏益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000887</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根稳进回报混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4828,4 +4829,1846 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9049</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8732</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0413</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5518</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4474</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1095</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8681</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010094</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德产业机遇混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8134</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.44</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6775</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6553</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>30.55</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>42.80</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5071</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4214</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>150968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银河研究精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3261</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010898</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河产业动力混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3156</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2642</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>49.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2175</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501051</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>圆信永丰汇利混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1586</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>376510</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根大盘蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159899</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>招商中证全指软件交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007388</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007389</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根研究驱动股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>29.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005021</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>渤海汇金量化汇盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6671,4 +6672,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>47</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>23</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6680,7 +6681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6691,17 +6692,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6711,14 +6732,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>47</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.58</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.54</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7356</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6727,14 +6770,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3635</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -6743,14 +6808,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.95</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6759,13 +6846,1557 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8870</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>30.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>26.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3091</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2618</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0149</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>24.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001822</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商智能生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4656</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003986</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3138</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3067</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>48.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001933</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商新兴活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519644</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银河智联主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007794</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数优选增强C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.12</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>34.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>28.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>39.76</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>41</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>17.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8295,7 +8296,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8306,17 +8307,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8326,14 +8347,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>41</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.57</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8342,14 +8385,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>47</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.58</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4505</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8358,14 +8423,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>58</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -8374,14 +8461,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>18.95</v>
+          <t>519772</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新生活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6275</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -8390,13 +8499,1383 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>23.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1392</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0943</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0173</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4498</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3305</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>62.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3170</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3054</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2592</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.39</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2344</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2103</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014244</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1835</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>46.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1416</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014245</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬竞争力先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>27.81</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>26.82</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>37</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>47</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>58</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>17.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9758,7 +9759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9769,17 +9770,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9789,14 +9810,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>37</v>
-      </c>
-      <c r="D2" t="n">
-        <v>20.86</v>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6054</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -9805,14 +9848,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>41</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.57</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4392</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9821,14 +9886,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26.58</v>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8442</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -9837,14 +9924,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>30</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>25.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6236</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -9853,14 +9962,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="n">
-        <v>18.95</v>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1684</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -9869,13 +10000,1019 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1481</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>18.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9842</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9022</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5444</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3979</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1690</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0905</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004750</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013575</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>43.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>26.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013576</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏扬品质精选混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>37</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20.86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>47</v>
+      </c>
+      <c r="D5" t="n">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>58</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>17.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>15.88</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>20.86</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D4" t="n">
-        <v>22.57</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D5" t="n">
-        <v>26.58</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D6" t="n">
-        <v>30</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>58</v>
+      </c>
+      <c r="D7" t="n">
         <v>30</v>
-      </c>
-      <c r="D7" t="n">
-        <v>18.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>23</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>17.1</v>
       </c>
     </row>
@@ -600,6 +617,1050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0874</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5356</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4117</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>32.33</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0057</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.9982</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7593</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7438</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009812</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>61.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4746</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>59.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3882</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011837</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009813</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达悦兴一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1191</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1136</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>80.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011838</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏扬中国优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008499</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008500</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏扬景科混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>33.87</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>76.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1719,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3181,7 +4242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4795,7 +5856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6637,7 +7698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8897,7 +9958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10093,7 +11154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
+++ b/数据整理/stocks/A股/科创板/688188-柏楚电子.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D2" t="n">
-        <v>12.66</v>
+        <v>19.93</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>15.88</v>
+        <v>12.66</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>20.86</v>
+        <v>15.88</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" t="n">
-        <v>22.57</v>
+        <v>20.86</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D6" t="n">
-        <v>26.58</v>
+        <v>22.57</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>26.58</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
+        <v>58</v>
+      </c>
+      <c r="D8" t="n">
         <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>18.95</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,958 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>23</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>17.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001475</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达国防军工混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519773</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德数据产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2270</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6313</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5674</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3461</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1923</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1836</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.97</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009064</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>55.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4458</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005642</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2675</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>49.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009065</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景沃六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005664</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008416</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005643</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏扬景升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005665</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬景欣混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003659</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>山西证券策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008417</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏扬景瑞三年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>79.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1562,1580 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001216</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8624</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001500</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德远见回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.14</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2892</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>32.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2247</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001603</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达安盈回报混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>42.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.1503</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德致远混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>48.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8699</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001217</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>易方达新收益灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7811</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6049</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5410</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013813</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺景气进取混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>10.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4552</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4526</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.96</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3947</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2918</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2318</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014472</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2047</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015683</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159667</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004966</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泓德致远混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>48.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1350</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013369</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159663</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏中证机床ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>920011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002723</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>江信祺福债券A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>014473</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>85.86</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>920008</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>920921</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中金安心回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>920928</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中金进取回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>013370</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富自主核心科技一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.35</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>80.90</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002724</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>江信祺福债券C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.15</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>017194</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1660,7 +4179,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2780,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4242,7 +6761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5856,7 +8375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7698,7 +10217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9958,7 +12477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11152,932 +13671,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001475</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达国防军工混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>84.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>3.5128</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>519773</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银施罗德数据产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>42.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.2270</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001216</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>25.69</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.6313</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>1.5674</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>1.5674</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>506003</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国科创板两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>28.22</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.3461</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.1923</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001217</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达新收益灵活配置混合 - C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>18.64</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>89.38</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.35</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.1836</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004965</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泓德致远混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>59.97</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9655</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009064</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>55.73</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.4458</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>008734</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>交银施罗德科锐科技创新混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>88.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.2921</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005642</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>7.29</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.2675</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001603</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>易方达安盈回报混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.79</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>49.64</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2637</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>004966</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泓德致远混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>11.87</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>49.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1911</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>009065</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>鹏扬景沃六个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>22.71</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>27.56</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1817</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005664</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>13.03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1420</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008416</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005643</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>鹏扬景升灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.93</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.58</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0341</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005665</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>鹏扬景欣混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>28.88</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0165</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>003659</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>山西证券策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005949</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0079</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>008417</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏扬景瑞三年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0043</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005950</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>鑫元行业轮动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>79.31</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>